--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R201_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R201_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -824,10 +836,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -871,28 +883,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -917,28 +929,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1026,10 +1038,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1073,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1119,28 +1131,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1257,10 +1269,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1304,28 +1316,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1350,28 +1362,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1430,10 +1442,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1477,28 +1489,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1523,28 +1535,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1632,10 +1644,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1679,28 +1691,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1725,28 +1737,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1921,10 +1933,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1968,28 +1980,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2014,28 +2026,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2152,10 +2164,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2199,28 +2211,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2245,28 +2257,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2441,10 +2453,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2488,28 +2500,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2534,28 +2546,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2614,10 +2626,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2661,28 +2673,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2707,28 +2719,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2845,10 +2857,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2892,28 +2904,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2938,28 +2950,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3134,10 +3146,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3181,28 +3193,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3227,28 +3239,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3307,10 +3319,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3354,28 +3366,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3400,28 +3412,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3480,10 +3492,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3527,28 +3539,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3573,28 +3585,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3653,10 +3665,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3700,28 +3712,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3746,28 +3758,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3826,10 +3838,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3873,28 +3885,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3919,28 +3931,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4115,10 +4127,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4162,28 +4174,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4208,28 +4220,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4288,10 +4300,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4335,28 +4347,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4381,28 +4393,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4461,10 +4473,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4508,28 +4520,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4554,28 +4566,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4692,10 +4704,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4739,28 +4751,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4785,28 +4797,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4894,10 +4906,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4941,28 +4953,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4987,28 +4999,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5067,10 +5079,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5114,28 +5126,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5160,28 +5172,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5240,10 +5252,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5287,28 +5299,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5333,28 +5345,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5442,10 +5454,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5489,28 +5501,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5535,28 +5547,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5615,10 +5627,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5662,28 +5674,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5708,28 +5720,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5817,10 +5829,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5864,28 +5876,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5910,28 +5922,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5990,10 +6002,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6037,28 +6049,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6083,28 +6095,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6250,10 +6262,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6297,28 +6309,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6343,28 +6355,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6539,10 +6551,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6586,28 +6598,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6632,28 +6644,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6741,10 +6753,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6788,28 +6800,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6834,28 +6846,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7001,10 +7013,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7048,28 +7060,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7094,28 +7106,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7232,10 +7244,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7279,28 +7291,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7325,28 +7337,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7434,10 +7446,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7481,28 +7493,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7527,28 +7539,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7636,10 +7648,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7683,28 +7695,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7729,28 +7741,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7838,10 +7850,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7885,28 +7897,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7931,28 +7943,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8185,10 +8197,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8232,28 +8244,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8278,28 +8290,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8387,10 +8399,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
